--- a/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/filt_subclade_percent_wide_summary_2.0.xlsx
+++ b/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/filt_subclade_percent_wide_summary_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8AD992-91D3-464E-8D39-8FB5AC429CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B030EE0-931A-E04D-8E4B-44963E0F8E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26900" yWindow="-5140" windowWidth="25600" windowHeight="14480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>SA1</t>
   </si>
@@ -98,10 +98,31 @@
     <t>Ong\_2022</t>
   </si>
   <si>
-    <t>Clade or subclade</t>
-  </si>
-  <si>
-    <t>Amplification type</t>
+    <t>Mazard_2012</t>
+  </si>
+  <si>
+    <t>Ong_2022</t>
+  </si>
+  <si>
+    <t>Amplification protocol</t>
+  </si>
+  <si>
+    <t>Clade</t>
+  </si>
+  <si>
+    <t>Subclade</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>VI</t>
   </si>
 </sst>
 </file>
@@ -133,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,17 +162,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,47 +1385,60 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="2">
         <v>20.61801424367879</v>
       </c>
@@ -1394,10 +1456,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="2">
         <v>47.99634028687624</v>
       </c>
@@ -1415,13 +1478,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="2">
         <v>0.55886148997853757</v>
       </c>
@@ -1439,10 +1504,11 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="2">
         <v>1.305074835653762</v>
       </c>
@@ -1460,13 +1526,15 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2">
         <v>74.723714005188398</v>
       </c>
@@ -1484,10 +1552,11 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2">
         <v>36.983489533156323</v>
       </c>
@@ -1505,13 +1574,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2">
         <v>3.447638225479126</v>
       </c>
@@ -1529,10 +1600,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="2">
         <v>13.36812977988455</v>
       </c>
@@ -1550,13 +1622,13 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
@@ -1575,10 +1647,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="2">
         <v>3.499486254329006E-2</v>
       </c>
@@ -1596,13 +1669,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
@@ -1620,10 +1693,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
@@ -1641,13 +1715,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="2">
         <v>0.22264196304549719</v>
       </c>
@@ -1665,10 +1739,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="2">
         <v>0.14763209878648989</v>
       </c>
@@ -1686,13 +1761,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
@@ -1710,10 +1785,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
@@ -1731,13 +1807,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="2">
         <v>0.26230128161681759</v>
       </c>
@@ -1755,10 +1833,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D20" s="2">
         <v>5.3420850419685612E-2</v>
       </c>
@@ -1776,13 +1855,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="2">
         <v>0.1652429633819005</v>
       </c>
@@ -1800,10 +1881,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="3">
         <v>5.8458611805016153E-3</v>
       </c>
@@ -1821,13 +1903,15 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
@@ -1845,10 +1929,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D24" s="2">
         <v>6.2447814803051407E-2</v>
       </c>
@@ -1866,13 +1951,15 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
@@ -1890,10 +1977,11 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D26" s="2">
         <v>2.5090763400860451E-2</v>
       </c>
@@ -1912,13 +2000,13 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
@@ -1936,10 +2024,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="2">
         <v>1.7533313295260991E-2</v>
       </c>
@@ -1957,13 +2046,15 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D29" s="2">
         <v>0</v>
       </c>
@@ -1981,10 +2072,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D30" s="2">
         <v>0</v>
       </c>
@@ -2002,13 +2094,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -2026,10 +2118,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D32" s="2">
         <v>0</v>
       </c>
@@ -2047,13 +2140,15 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D33" s="3">
         <v>1.585827630930994E-3</v>
       </c>
@@ -2071,10 +2166,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
@@ -2092,13 +2188,15 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D35" s="2">
         <v>0</v>
       </c>
@@ -2116,10 +2214,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D36" s="2">
         <v>0</v>
       </c>
@@ -2137,10 +2236,46 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>